--- a/src/test/resources/testdata/OpenCartTestData.xlsx
+++ b/src/test/resources/testdata/OpenCartTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naveenautomationlabs/Documents/workspace1/March2023POMSeries/src/test/resources/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\March2023POMSeriesFramework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CEC8F8-9D43-274E-823A-59E455D09953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895AF97C-4583-4ACC-B0F5-41FC62BA5833}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="1920" windowWidth="33940" windowHeight="19000" activeTab="2" xr2:uid="{70420736-F77F-BC49-8BF7-4E691313C297}"/>
+    <workbookView xWindow="2244" yWindow="1920" windowWidth="33936" windowHeight="18996" xr2:uid="{70420736-F77F-BC49-8BF7-4E691313C297}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -23,23 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>firstname</t>
   </si>
@@ -105,6 +94,18 @@
   </si>
   <si>
     <t>imac</t>
+  </si>
+  <si>
+    <t>uniqueValue</t>
+  </si>
+  <si>
+    <t>Reset_001</t>
+  </si>
+  <si>
+    <t>Reset_002</t>
+  </si>
+  <si>
+    <t>Reset_003</t>
   </si>
 </sst>
 </file>
@@ -499,90 +500,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83465860-4017-914E-99B7-265BFE1A7821}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{C13017BE-466F-A043-8544-2B77F55B4CDA}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{FDFC8FAF-D50C-554A-8848-32D8363F195C}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{FC4BE3A2-8FD1-FF4C-98DE-9E69080B0F5C}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{C13017BE-466F-A043-8544-2B77F55B4CDA}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{FDFC8FAF-D50C-554A-8848-32D8363F195C}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{FC4BE3A2-8FD1-FF4C-98DE-9E69080B0F5C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -596,7 +609,7 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -606,13 +619,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B714746F-17BB-F44D-B8BB-EBA132EB6909}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -631,14 +644,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
